--- a/lab_meeting_tests/test_signals_new/results/eeg_theme_park_errors.xlsx
+++ b/lab_meeting_tests/test_signals_new/results/eeg_theme_park_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,150 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>test_1_1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_utils.py", line 390, in get_flag_times
-    raise ValueError(f"No row found with ID '{id}' in the Excel file")
-ValueError: No row found with ID 'test_1_1' in the Excel file
-The above exception was the direct cause of the following exception:
-Traceback (most recent call last):
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_processing.py", line 292, in run_analysis
-    flag_times = get_flag_times(self.excel_path, id, self.event_names)
-                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_utils.py", line 436, in get_flag_times
-    raise ValueError(f"Error occurred ({e}), but should have been sandboxed. Please contact me at agimeno310@gmail.com") from e
-ValueError: Error occurred (No row found with ID 'test_1_1' in the Excel file), but should have been sandboxed. Please contact me at agimeno310@gmail.com
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>test_1_2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_utils.py", line 390, in get_flag_times
-    raise ValueError(f"No row found with ID '{id}' in the Excel file")
-ValueError: No row found with ID 'test_1_2' in the Excel file
-The above exception was the direct cause of the following exception:
-Traceback (most recent call last):
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_processing.py", line 292, in run_analysis
-    flag_times = get_flag_times(self.excel_path, id, self.event_names)
-                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_utils.py", line 436, in get_flag_times
-    raise ValueError(f"Error occurred ({e}), but should have been sandboxed. Please contact me at agimeno310@gmail.com") from e
-ValueError: Error occurred (No row found with ID 'test_1_2' in the Excel file), but should have been sandboxed. Please contact me at agimeno310@gmail.com
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>test_2_1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_utils.py", line 390, in get_flag_times
-    raise ValueError(f"No row found with ID '{id}' in the Excel file")
-ValueError: No row found with ID 'test_2_1' in the Excel file
-The above exception was the direct cause of the following exception:
-Traceback (most recent call last):
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_processing.py", line 292, in run_analysis
-    flag_times = get_flag_times(self.excel_path, id, self.event_names)
-                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_utils.py", line 436, in get_flag_times
-    raise ValueError(f"Error occurred ({e}), but should have been sandboxed. Please contact me at agimeno310@gmail.com") from e
-ValueError: Error occurred (No row found with ID 'test_2_1' in the Excel file), but should have been sandboxed. Please contact me at agimeno310@gmail.com
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>test_2_2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_utils.py", line 390, in get_flag_times
-    raise ValueError(f"No row found with ID '{id}' in the Excel file")
-ValueError: No row found with ID 'test_2_2' in the Excel file
-The above exception was the direct cause of the following exception:
-Traceback (most recent call last):
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_processing.py", line 292, in run_analysis
-    flag_times = get_flag_times(self.excel_path, id, self.event_names)
-                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_utils.py", line 436, in get_flag_times
-    raise ValueError(f"Error occurred ({e}), but should have been sandboxed. Please contact me at agimeno310@gmail.com") from e
-ValueError: Error occurred (No row found with ID 'test_2_2' in the Excel file), but should have been sandboxed. Please contact me at agimeno310@gmail.com
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>test_3_1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_utils.py", line 390, in get_flag_times
-    raise ValueError(f"No row found with ID '{id}' in the Excel file")
-ValueError: No row found with ID 'test_3_1' in the Excel file
-The above exception was the direct cause of the following exception:
-Traceback (most recent call last):
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_processing.py", line 292, in run_analysis
-    flag_times = get_flag_times(self.excel_path, id, self.event_names)
-                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_utils.py", line 436, in get_flag_times
-    raise ValueError(f"Error occurred ({e}), but should have been sandboxed. Please contact me at agimeno310@gmail.com") from e
-ValueError: Error occurred (No row found with ID 'test_3_1' in the Excel file), but should have been sandboxed. Please contact me at agimeno310@gmail.com
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>test_3_2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_utils.py", line 390, in get_flag_times
-    raise ValueError(f"No row found with ID '{id}' in the Excel file")
-ValueError: No row found with ID 'test_3_2' in the Excel file
-The above exception was the direct cause of the following exception:
-Traceback (most recent call last):
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_processing.py", line 292, in run_analysis
-    flag_times = get_flag_times(self.excel_path, id, self.event_names)
-                 ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "C:\Users\Alex_G\Proton Drive\agimeno310\My files\Personal Projects\Autodidact\eeg_theme_park\modes\batch_processing\batch_utils.py", line 436, in get_flag_times
-    raise ValueError(f"Error occurred ({e}), but should have been sandboxed. Please contact me at agimeno310@gmail.com") from e
-ValueError: Error occurred (No row found with ID 'test_3_2' in the Excel file), but should have been sandboxed. Please contact me at agimeno310@gmail.com
-</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
